--- a/sample.xlsx
+++ b/sample.xlsx
@@ -6041,8 +6041,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -6041,8 +6041,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -6041,8 +6041,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7147,7 +7147,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7774,7 +7774,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="data2" sheetId="4" r:id="rId4"/>
     <sheet name="cell error" sheetId="5" r:id="rId5"/>
     <sheet name="Group(Reinvest)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data1!$A$2:$R$14</definedName>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="253">
   <si>
     <t>Fields Map</t>
   </si>
@@ -1000,6 +1001,21 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>RelatedDataSheet</t>
+  </si>
+  <si>
+    <t>NormalFields</t>
+  </si>
+  <si>
+    <t>ConditionalField</t>
+  </si>
+  <si>
+    <t>OBSItems</t>
+  </si>
+  <si>
+    <t>MSRDataSheet</t>
   </si>
 </sst>
 </file>
@@ -6041,8 +6057,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7146,8 +7162,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8720,4 +8736,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"Private Function Apply"&amp;A1 &amp; "(dataHeads) as boolean"</f>
+        <v>Private Function ApplyRelatedDataSheet(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B12" si="0">"Private Function Apply"&amp;A2 &amp; "(dataHeads) as boolean"</f>
+        <v>Private Function ApplyNormalFields(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyConditionalField(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyDisplayFields(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyBalanceField(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplySortOutput(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyFakedFields(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyTHCHeadDescription(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyOBSItems(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyAcceptableValues(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyValueCheckFields(dataHeads) as boolean</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Private Function ApplyMSRDataSheet(dataHeads) as boolean</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -6057,7 +6057,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -7162,7 +7162,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="256">
   <si>
     <t>Fields Map</t>
   </si>
@@ -592,9 +592,6 @@
     <t>Related Data Sheet</t>
   </si>
   <si>
-    <t>_F[ Description]</t>
-  </si>
-  <si>
     <t>B005</t>
   </si>
   <si>
@@ -1016,6 +1013,18 @@
   </si>
   <si>
     <t>MSRDataSheet</t>
+  </si>
+  <si>
+    <t>_F(monthly)</t>
+  </si>
+  <si>
+    <t>_F  (output row)</t>
+  </si>
+  <si>
+    <t>_F ( Description)</t>
+  </si>
+  <si>
+    <t>if(isnumber(_F(Rate(%))),_F (Rate(%))*100, [Rate(%)])</t>
   </si>
 </sst>
 </file>
@@ -6057,8 +6066,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -6201,7 +6210,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>24</v>
@@ -6232,7 +6241,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -6242,18 +6251,18 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6266,7 +6275,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -6277,7 +6286,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6293,12 +6302,12 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -6317,7 +6326,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6333,7 +6342,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6341,31 +6350,31 @@
         <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -6439,10 +6448,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6586,26 +6595,26 @@
     </row>
     <row r="60" spans="1:4" ht="18.75" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>25</v>
@@ -6613,7 +6622,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
@@ -6629,22 +6638,22 @@
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -6654,12 +6663,12 @@
         <v>25</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18.75" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
@@ -6682,143 +6691,143 @@
     </row>
     <row r="77" spans="1:3" ht="18.75" customHeight="1">
       <c r="A77" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="C77" s="24"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="18.75" customHeight="1">
       <c r="A93" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="C93" s="24"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D94" s="2">
         <v>0.01</v>
@@ -6829,13 +6838,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D95" s="2">
         <v>-1E-4</v>
@@ -6843,13 +6852,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D96" s="2">
         <v>50</v>
@@ -6860,13 +6869,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -6883,13 +6892,13 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D98" s="2">
         <v>-50</v>
@@ -6912,7 +6921,7 @@
     </row>
     <row r="100" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A100" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>57</v>
@@ -6923,7 +6932,7 @@
         <v>28</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C103" s="14">
         <v>2</v>
@@ -6933,7 +6942,7 @@
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -7054,7 +7063,7 @@
     </row>
     <row r="118" spans="1:6" ht="18.75" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7062,7 +7071,7 @@
         <v>35</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7070,7 +7079,7 @@
         <v>36</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7078,7 +7087,7 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>36</v>
@@ -7089,28 +7098,28 @@
         <v>34</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="18.75" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D126" s="2">
         <v>3</v>
@@ -7127,7 +7136,7 @@
         <v>36</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7135,7 +7144,7 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>36</v>
@@ -7146,7 +7155,7 @@
         <v>34</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -7240,7 +7249,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>34</v>
@@ -7264,15 +7273,15 @@
         <v>82</v>
       </c>
       <c r="M2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="25" customFormat="1">
       <c r="A3" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="25">
         <v>1</v>
@@ -7299,7 +7308,7 @@
         <v>67</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N3" s="25">
         <v>1</v>
@@ -7311,7 +7320,7 @@
     </row>
     <row r="4" spans="1:18" s="25" customFormat="1">
       <c r="A4" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="25">
         <v>2</v>
@@ -7323,7 +7332,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="21">
         <v>10000</v>
@@ -7338,7 +7347,7 @@
         <v>68</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N4" s="25">
         <v>1.5</v>
@@ -7374,7 +7383,7 @@
         <v>67</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N5" s="25">
         <v>2</v>
@@ -7386,7 +7395,7 @@
     </row>
     <row r="6" spans="1:18" s="25" customFormat="1">
       <c r="A6" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="25">
         <v>4</v>
@@ -7411,7 +7420,7 @@
         <v>68</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N6" s="25">
         <v>3</v>
@@ -7423,7 +7432,7 @@
     </row>
     <row r="7" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="25">
         <v>5</v>
@@ -7435,7 +7444,7 @@
         <v>62</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="21">
         <v>10000</v>
@@ -7453,7 +7462,7 @@
         <v>67</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N7" s="25">
         <v>3.5</v>
@@ -7465,7 +7474,7 @@
     </row>
     <row r="8" spans="1:18" s="27" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="25">
         <v>6</v>
@@ -7477,7 +7486,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="21">
         <v>10000</v>
@@ -7492,7 +7501,7 @@
         <v>68</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N8" s="25">
         <v>4.2</v>
@@ -7504,7 +7513,7 @@
     </row>
     <row r="9" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="25">
         <v>7</v>
@@ -7516,7 +7525,7 @@
         <v>63</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="21">
         <v>10000</v>
@@ -7531,7 +7540,7 @@
         <v>67</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N9" s="25">
         <v>5.4</v>
@@ -7543,7 +7552,7 @@
     </row>
     <row r="10" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="25">
         <v>8</v>
@@ -7555,7 +7564,7 @@
         <v>63</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="21">
         <v>10000</v>
@@ -7570,7 +7579,7 @@
         <v>68</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N10" s="25">
         <v>6</v>
@@ -7582,7 +7591,7 @@
     </row>
     <row r="11" spans="1:18" s="25" customFormat="1">
       <c r="A11" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="25">
         <v>9</v>
@@ -7595,7 +7604,7 @@
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="21">
@@ -7612,7 +7621,7 @@
         <v>67</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" s="25">
         <v>6.5</v>
@@ -7624,7 +7633,7 @@
     </row>
     <row r="12" spans="1:18" s="25" customFormat="1">
       <c r="A12" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="25">
         <v>10</v>
@@ -7637,7 +7646,7 @@
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="21">
@@ -7654,7 +7663,7 @@
         <v>68</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N12" s="25">
         <v>6.8</v>
@@ -7666,7 +7675,7 @@
     </row>
     <row r="13" spans="1:18" s="25" customFormat="1">
       <c r="A13" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="25">
         <v>11</v>
@@ -7679,7 +7688,7 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="21">
@@ -7696,7 +7705,7 @@
         <v>67</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N13" s="25">
         <v>9.1</v>
@@ -7708,7 +7717,7 @@
     </row>
     <row r="14" spans="1:18" s="25" customFormat="1">
       <c r="A14" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="25">
         <v>12</v>
@@ -7721,7 +7730,7 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="21">
@@ -7738,7 +7747,7 @@
         <v>68</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N14" s="25">
         <v>9.1999999999999993</v>
@@ -7855,7 +7864,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -7873,28 +7882,28 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N2" t="s">
         <v>193</v>
       </c>
-      <c r="L2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>196</v>
-      </c>
-      <c r="N2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O2" t="s">
-        <v>197</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -7902,13 +7911,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3">
         <v>4500103257</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3">
         <v>13020100</v>
@@ -7929,7 +7938,7 @@
         <v>37.5</v>
       </c>
       <c r="K3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L3" s="31">
         <v>667</v>
@@ -7943,13 +7952,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>4500081867</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4">
         <v>17020200</v>
@@ -7970,7 +7979,7 @@
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L4" s="31">
         <v>672</v>
@@ -7984,13 +7993,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5">
         <v>4500060267</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5">
         <v>19060100</v>
@@ -8011,7 +8020,7 @@
         <v>37.5</v>
       </c>
       <c r="K5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L5" s="31">
         <v>699</v>
@@ -8025,13 +8034,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6">
         <v>4500003209</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6">
         <v>19050300</v>
@@ -8052,7 +8061,7 @@
         <v>37.5</v>
       </c>
       <c r="K6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L6" s="31">
         <v>802</v>
@@ -8066,13 +8075,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7">
         <v>500028649</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7">
         <v>18000000</v>
@@ -8093,7 +8102,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L7" s="31">
         <v>802</v>
@@ -8107,13 +8116,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8">
         <v>4500060556</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8">
         <v>16010000</v>
@@ -8134,7 +8143,7 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L8" s="31">
         <v>708</v>
@@ -8148,13 +8157,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9">
         <v>4500081875</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9">
         <v>17060100</v>
@@ -8175,7 +8184,7 @@
         <v>37.5</v>
       </c>
       <c r="K9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L9" s="31">
         <v>704</v>
@@ -8189,13 +8198,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10">
         <v>4500119402</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10">
         <v>17060200</v>
@@ -8216,7 +8225,7 @@
         <v>37.5</v>
       </c>
       <c r="K10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L10" s="31">
         <v>696</v>
@@ -8230,13 +8239,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11">
         <v>4500119402</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11">
         <v>17060300</v>
@@ -8257,7 +8266,7 @@
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L11" s="31">
         <v>639</v>
@@ -8382,30 +8391,30 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" t="b">
         <f>B2=E2</f>
@@ -8430,7 +8439,7 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G3" t="b">
         <f t="shared" ref="G3:G13" si="0">B3=E3</f>
@@ -8443,19 +8452,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>144</v>
-      </c>
       <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" t="s">
-        <v>144</v>
-      </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G4" t="b">
         <f t="shared" si="0"/>
@@ -8468,19 +8477,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" t="b">
         <f t="shared" si="0"/>
@@ -8493,19 +8502,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" t="b">
         <f t="shared" si="0"/>
@@ -8518,19 +8527,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
       <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
         <v>147</v>
       </c>
-      <c r="E7" t="s">
-        <v>148</v>
-      </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" t="b">
         <f t="shared" si="0"/>
@@ -8543,19 +8552,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
         <v>148</v>
       </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
-      </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" t="b">
         <f t="shared" si="0"/>
@@ -8568,19 +8577,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" t="b">
         <f t="shared" si="0"/>
@@ -8593,19 +8602,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
         <v>151</v>
       </c>
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" t="s">
-        <v>152</v>
-      </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" t="b">
         <f t="shared" si="0"/>
@@ -8618,19 +8627,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" t="b">
         <f t="shared" si="0"/>
@@ -8643,19 +8652,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" t="b">
         <f t="shared" si="0"/>
@@ -8668,19 +8677,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" t="b">
         <f t="shared" si="0"/>
@@ -8693,7 +8702,7 @@
     </row>
     <row r="18" spans="3:5">
       <c r="C18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -8703,27 +8712,27 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="3:5">
@@ -8753,7 +8762,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" t="str">
         <f>"Private Function Apply"&amp;A1 &amp; "(dataHeads) as boolean"</f>
@@ -8762,7 +8771,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B12" si="0">"Private Function Apply"&amp;A2 &amp; "(dataHeads) as boolean"</f>
@@ -8771,7 +8780,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -8789,7 +8798,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -8798,7 +8807,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -8807,7 +8816,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -8816,7 +8825,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -8825,7 +8834,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -8834,7 +8843,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -8843,7 +8852,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -8852,7 +8861,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -559,9 +559,6 @@
     <t>""</t>
   </si>
   <si>
-    <t>_F[Rate(%)]*10</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -1025,6 +1022,9 @@
   </si>
   <si>
     <t>if(isnumber(_F(Rate(%))),_F (Rate(%))*100, [Rate(%)])</t>
+  </si>
+  <si>
+    <t>_F(Rate(%))*10</t>
   </si>
 </sst>
 </file>
@@ -6066,8 +6066,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6094,10 +6094,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6109,11 +6109,11 @@
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6125,11 +6125,11 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6141,11 +6141,11 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6210,7 +6210,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>24</v>
@@ -6241,7 +6241,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -6251,18 +6251,18 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6275,7 +6275,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -6286,7 +6286,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6302,12 +6302,12 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -6326,7 +6326,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6342,7 +6342,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6350,31 +6350,31 @@
         <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -6423,7 +6423,7 @@
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -6448,10 +6448,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6595,26 +6595,26 @@
     </row>
     <row r="60" spans="1:4" ht="18.75" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>25</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
@@ -6638,22 +6638,22 @@
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -6663,12 +6663,12 @@
         <v>25</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18.75" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
@@ -6691,143 +6691,143 @@
     </row>
     <row r="77" spans="1:3" ht="18.75" customHeight="1">
       <c r="A77" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>228</v>
       </c>
       <c r="C77" s="24"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="18.75" customHeight="1">
       <c r="A93" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="C93" s="24"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D94" s="2">
         <v>0.01</v>
@@ -6838,13 +6838,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="D95" s="2">
         <v>-1E-4</v>
@@ -6852,13 +6852,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D96" s="2">
         <v>50</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -6892,13 +6892,13 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98" s="2">
         <v>-50</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="100" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A100" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>57</v>
@@ -6932,7 +6932,7 @@
         <v>28</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C103" s="14">
         <v>2</v>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -7063,7 +7063,7 @@
     </row>
     <row r="118" spans="1:6" ht="18.75" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>35</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7079,7 +7079,7 @@
         <v>36</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7087,7 +7087,7 @@
         <v>37</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>36</v>
@@ -7098,28 +7098,28 @@
         <v>34</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="18.75" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126" s="2">
         <v>3</v>
@@ -7136,7 +7136,7 @@
         <v>36</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7144,7 +7144,7 @@
         <v>37</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>36</v>
@@ -7155,7 +7155,7 @@
         <v>34</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -7249,7 +7249,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>34</v>
@@ -7273,15 +7273,15 @@
         <v>82</v>
       </c>
       <c r="M2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="25" customFormat="1">
       <c r="A3" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="25">
         <v>1</v>
@@ -7308,7 +7308,7 @@
         <v>67</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N3" s="25">
         <v>1</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="4" spans="1:18" s="25" customFormat="1">
       <c r="A4" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="25">
         <v>2</v>
@@ -7332,7 +7332,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="21">
         <v>10000</v>
@@ -7347,7 +7347,7 @@
         <v>68</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N4" s="25">
         <v>1.5</v>
@@ -7383,7 +7383,7 @@
         <v>67</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5" s="25">
         <v>2</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="6" spans="1:18" s="25" customFormat="1">
       <c r="A6" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="25">
         <v>4</v>
@@ -7420,7 +7420,7 @@
         <v>68</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N6" s="25">
         <v>3</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="7" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="25">
         <v>5</v>
@@ -7444,7 +7444,7 @@
         <v>62</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="21">
         <v>10000</v>
@@ -7462,7 +7462,7 @@
         <v>67</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N7" s="25">
         <v>3.5</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="8" spans="1:18" s="27" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="25">
         <v>6</v>
@@ -7486,7 +7486,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="21">
         <v>10000</v>
@@ -7501,7 +7501,7 @@
         <v>68</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N8" s="25">
         <v>4.2</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="9" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="25">
         <v>7</v>
@@ -7525,7 +7525,7 @@
         <v>63</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="21">
         <v>10000</v>
@@ -7540,7 +7540,7 @@
         <v>67</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N9" s="25">
         <v>5.4</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="10" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="25">
         <v>8</v>
@@ -7564,7 +7564,7 @@
         <v>63</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" s="21">
         <v>10000</v>
@@ -7579,7 +7579,7 @@
         <v>68</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N10" s="25">
         <v>6</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="11" spans="1:18" s="25" customFormat="1">
       <c r="A11" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="25">
         <v>9</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="21">
@@ -7621,7 +7621,7 @@
         <v>67</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N11" s="25">
         <v>6.5</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="12" spans="1:18" s="25" customFormat="1">
       <c r="A12" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="25">
         <v>10</v>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="21">
@@ -7663,7 +7663,7 @@
         <v>68</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N12" s="25">
         <v>6.8</v>
@@ -7675,7 +7675,7 @@
     </row>
     <row r="13" spans="1:18" s="25" customFormat="1">
       <c r="A13" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="25">
         <v>11</v>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="21">
@@ -7705,7 +7705,7 @@
         <v>67</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N13" s="25">
         <v>9.1</v>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="14" spans="1:18" s="25" customFormat="1">
       <c r="A14" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="25">
         <v>12</v>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="21">
@@ -7747,7 +7747,7 @@
         <v>68</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N14" s="25">
         <v>9.1999999999999993</v>
@@ -7864,7 +7864,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -7882,28 +7882,28 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" t="s">
         <v>192</v>
       </c>
-      <c r="L2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>195</v>
-      </c>
-      <c r="N2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O2" t="s">
-        <v>196</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <v>4500103257</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3">
         <v>13020100</v>
@@ -7938,7 +7938,7 @@
         <v>37.5</v>
       </c>
       <c r="K3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L3" s="31">
         <v>667</v>
@@ -7952,13 +7952,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>4500081867</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4">
         <v>17020200</v>
@@ -7979,7 +7979,7 @@
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L4" s="31">
         <v>672</v>
@@ -7993,13 +7993,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5">
         <v>4500060267</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>19060100</v>
@@ -8020,7 +8020,7 @@
         <v>37.5</v>
       </c>
       <c r="K5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L5" s="31">
         <v>699</v>
@@ -8034,13 +8034,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6">
         <v>4500003209</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6">
         <v>19050300</v>
@@ -8061,7 +8061,7 @@
         <v>37.5</v>
       </c>
       <c r="K6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L6" s="31">
         <v>802</v>
@@ -8075,13 +8075,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7">
         <v>500028649</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7">
         <v>18000000</v>
@@ -8102,7 +8102,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L7" s="31">
         <v>802</v>
@@ -8116,13 +8116,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8">
         <v>4500060556</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8">
         <v>16010000</v>
@@ -8143,7 +8143,7 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L8" s="31">
         <v>708</v>
@@ -8157,13 +8157,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9">
         <v>4500081875</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9">
         <v>17060100</v>
@@ -8184,7 +8184,7 @@
         <v>37.5</v>
       </c>
       <c r="K9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L9" s="31">
         <v>704</v>
@@ -8198,13 +8198,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10">
         <v>4500119402</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <v>17060200</v>
@@ -8225,7 +8225,7 @@
         <v>37.5</v>
       </c>
       <c r="K10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L10" s="31">
         <v>696</v>
@@ -8239,13 +8239,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11">
         <v>4500119402</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11">
         <v>17060300</v>
@@ -8266,7 +8266,7 @@
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L11" s="31">
         <v>639</v>
@@ -8391,30 +8391,30 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" t="b">
         <f>B2=E2</f>
@@ -8439,7 +8439,7 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" t="b">
         <f t="shared" ref="G3:G13" si="0">B3=E3</f>
@@ -8452,19 +8452,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
         <v>142</v>
       </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" t="b">
         <f t="shared" si="0"/>
@@ -8477,19 +8477,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" t="b">
         <f t="shared" si="0"/>
@@ -8502,19 +8502,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
         <v>144</v>
       </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" t="b">
         <f t="shared" si="0"/>
@@ -8527,19 +8527,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
         <v>146</v>
       </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
       <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
         <v>146</v>
       </c>
-      <c r="E7" t="s">
-        <v>147</v>
-      </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" t="b">
         <f t="shared" si="0"/>
@@ -8552,19 +8552,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
         <v>147</v>
       </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" t="b">
         <f t="shared" si="0"/>
@@ -8577,19 +8577,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" t="b">
         <f t="shared" si="0"/>
@@ -8602,19 +8602,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>151</v>
-      </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G10" t="b">
         <f t="shared" si="0"/>
@@ -8627,19 +8627,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" t="b">
         <f t="shared" si="0"/>
@@ -8652,19 +8652,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" t="b">
         <f t="shared" si="0"/>
@@ -8677,19 +8677,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
         <v>153</v>
       </c>
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" t="b">
         <f t="shared" si="0"/>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="18" spans="3:5">
       <c r="C18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -8712,27 +8712,27 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="3:5">
@@ -8762,7 +8762,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" t="str">
         <f>"Private Function Apply"&amp;A1 &amp; "(dataHeads) as boolean"</f>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B12" si="0">"Private Function Apply"&amp;A2 &amp; "(dataHeads) as boolean"</f>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -8843,7 +8843,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
